--- a/Drop_Columns_categorical.xlsx
+++ b/Drop_Columns_categorical.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benediktkorbach/Documents/GitHub/Machine-Learning-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0840000A-DDC5-E844-82F8-BE6F4DF05F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7974D8-DCB3-C94E-AC17-C26F643222BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="11" r:id="rId2"/>
+    <pivotCache cacheId="12" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -10017,7 +10017,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A3E6F672-FB53-4645-9A70-07E17296AC5D}" name="PivotTable1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A3E6F672-FB53-4645-9A70-07E17296AC5D}" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="K849:M866" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -10325,8 +10325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M873"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E422" sqref="E422"/>
+    <sheetView tabSelected="1" topLeftCell="A606" workbookViewId="0">
+      <selection activeCell="G619" sqref="G619"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17384,7 +17384,7 @@
         <v>1</v>
       </c>
       <c r="E403" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.2">
@@ -17401,7 +17401,7 @@
         <v>1</v>
       </c>
       <c r="E404" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.2">
@@ -17418,7 +17418,7 @@
         <v>1</v>
       </c>
       <c r="E405" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.2">
@@ -17435,7 +17435,7 @@
         <v>1</v>
       </c>
       <c r="E406" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.2">
@@ -17452,7 +17452,7 @@
         <v>1</v>
       </c>
       <c r="E407" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.2">
@@ -17469,7 +17469,7 @@
         <v>1</v>
       </c>
       <c r="E408" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.2">
@@ -17486,7 +17486,7 @@
         <v>1</v>
       </c>
       <c r="E409" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.2">
@@ -17520,7 +17520,7 @@
         <v>411</v>
       </c>
       <c r="D411" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E411" t="s">
         <v>877</v>

--- a/Drop_Columns_categorical.xlsx
+++ b/Drop_Columns_categorical.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benediktkorbach/Documents/GitHub/Machine-Learning-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7974D8-DCB3-C94E-AC17-C26F643222BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89B65A6-920B-A244-AAC1-7A98C2EA838A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId2"/>
+    <pivotCache cacheId="13" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -10017,7 +10017,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A3E6F672-FB53-4645-9A70-07E17296AC5D}" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A3E6F672-FB53-4645-9A70-07E17296AC5D}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="K849:M866" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -10325,8 +10325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M873"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A606" workbookViewId="0">
-      <selection activeCell="G619" sqref="G619"/>
+    <sheetView tabSelected="1" topLeftCell="A236" workbookViewId="0">
+      <selection activeCell="D590" sqref="D590"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20618,7 +20618,7 @@
         <v>589</v>
       </c>
       <c r="D589" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E589" t="s">
         <v>877</v>

--- a/Drop_Columns_categorical.xlsx
+++ b/Drop_Columns_categorical.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benediktkorbach/Documents/GitHub/Machine-Learning-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89B65A6-920B-A244-AAC1-7A98C2EA838A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE5AA06-4DC5-A142-AAD8-62F1F416927E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10325,8 +10325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M873"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A236" workbookViewId="0">
-      <selection activeCell="D590" sqref="D590"/>
+    <sheetView tabSelected="1" topLeftCell="A840" workbookViewId="0">
+      <selection activeCell="E530" sqref="E530:E538"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11410,10 +11410,10 @@
         <v>62</v>
       </c>
       <c r="D62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="F62">
         <v>3350</v>
@@ -11430,10 +11430,10 @@
         <v>63</v>
       </c>
       <c r="D63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="F63">
         <v>5436</v>
@@ -13713,10 +13713,10 @@
         <v>195</v>
       </c>
       <c r="D195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E195" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="F195">
         <v>3456</v>
@@ -13733,10 +13733,10 @@
         <v>196</v>
       </c>
       <c r="D196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E196" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="F196">
         <v>4618</v>
@@ -13873,10 +13873,10 @@
         <v>203</v>
       </c>
       <c r="D203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E203" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="F203">
         <v>3986</v>
@@ -13913,10 +13913,10 @@
         <v>205</v>
       </c>
       <c r="D205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E205" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="F205">
         <v>2314</v>
@@ -14265,10 +14265,10 @@
         <v>225</v>
       </c>
       <c r="D225" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E225" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="F225">
         <v>2164</v>
@@ -14285,10 +14285,10 @@
         <v>226</v>
       </c>
       <c r="D226" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E226" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="F226">
         <v>2321</v>
@@ -14305,10 +14305,10 @@
         <v>227</v>
       </c>
       <c r="D227" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E227" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="F227">
         <v>2598</v>
@@ -14325,10 +14325,10 @@
         <v>228</v>
       </c>
       <c r="D228" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E228" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="F228">
         <v>2536</v>
@@ -15318,10 +15318,10 @@
         <v>285</v>
       </c>
       <c r="D285" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E285" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="F285">
         <v>3524</v>
@@ -15886,10 +15886,10 @@
         <v>317</v>
       </c>
       <c r="D317" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E317" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="F317">
         <v>3007</v>
@@ -15906,10 +15906,10 @@
         <v>318</v>
       </c>
       <c r="D318" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E318" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="F318">
         <v>3362</v>
@@ -15926,10 +15926,10 @@
         <v>319</v>
       </c>
       <c r="D319" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E319" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="F319">
         <v>3612</v>
@@ -17926,10 +17926,10 @@
         <v>434</v>
       </c>
       <c r="D434" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E434" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="F434">
         <v>2125</v>
@@ -17946,10 +17946,10 @@
         <v>435</v>
       </c>
       <c r="D435" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E435" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="F435">
         <v>2076</v>
@@ -19613,10 +19613,10 @@
         <v>532</v>
       </c>
       <c r="D532" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E532" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="F532">
         <v>2197</v>
@@ -19702,10 +19702,10 @@
         <v>536</v>
       </c>
       <c r="D536" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E536" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="F536">
         <v>2807</v>
@@ -19722,10 +19722,10 @@
         <v>537</v>
       </c>
       <c r="D537" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E537" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="F537">
         <v>2967</v>
@@ -19742,10 +19742,10 @@
         <v>538</v>
       </c>
       <c r="D538" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E538" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="F538">
         <v>2103</v>
